--- a/Sensitivity Testing.xlsx
+++ b/Sensitivity Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Documents\HSG\Simulations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jivan/Documents/GitHub/ABM-Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A999D-6DAB-4A0F-A456-A0E509C1F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292E8011-F26B-8947-B724-DDDCA34D471A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{1A5ADA3B-5CC0-4F6F-9D0F-4298B37C7D01}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{1A5ADA3B-5CC0-4F6F-9D0F-4298B37C7D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,12 +113,6 @@
     <t>0 to 260</t>
   </si>
   <si>
-    <t>As the number of workers increases, the mean productivity of turtles decreases during a wave of the common cold. The higher the employee count, the more infections employees have each year, as there are more infections with more employees (3 to 4). Average office productivity is very sensitive to the number of employees. The illness spikes also occur over a more narrow rane of ticks with higher numbers of employees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More teams in a population with all else equal, delays the spread of the illness. This means that with more teams, each illness wave occurs at a later tick than when there are less teams (each employee experiences less illness on average). These waves are also longer (over a greater period of ticks) and do not drop to as low of an average productive at their peak.  </t>
-  </si>
-  <si>
     <t>Increased movement across teams, increases the speed in which the illness travels across the company. Increased movement across teams, makes the illness waves steeper and last a shorter period of time, and have a greater amplitude.</t>
   </si>
   <si>
@@ -134,15 +128,9 @@
     <t xml:space="preserve">Somewhat sensitive </t>
   </si>
   <si>
-    <t>This value shifts the amount of time between infections, and determines the number of waves, therefore this model is very sensitive to this result. At 5 days of immunity, the average number of infections is higher for absentees than presentees since absentees stay sick for longer. The average number of infections increases linearly over number of steps with employss having 17 infections on average by the end of the year. Productivity oscillates, converging to around 75% on average. At immunity for the rest of the year, there is only one wave. Therefore at 65 days, there are 3-4 waves depending on the other parameters.</t>
-  </si>
-  <si>
     <t>Valid range 50-210 for the common cold, as this gives 2-4 infections a year.</t>
   </si>
   <si>
-    <t xml:space="preserve">This range is tested because most colds do not last longer than 2 weeks. A longer recovery period gives longer illness waves that are more severe in their productivity reduction. This is loical as the worse the illness, the more the office productivity is effected. The longer the recovery period also limits the number of waves that occur. </t>
-  </si>
-  <si>
     <t>Sensitive</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t xml:space="preserve">inaccurate for the common cold under 0.02. The restrictions around immunity allow for minimizing the impact of very high levels of contagion. </t>
   </si>
   <si>
-    <t>Lower severity levels increase the average productivity of presentees and of the average worker during illness spikes. Severity of 0.7, makes absentees on average more productive than presentees during an illness. Therefore this shows that for severe illness, it is better for the company for employees to go home.</t>
-  </si>
-  <si>
     <t>only affects productivity not number of illnesses, but productivity is sensitive</t>
   </si>
   <si>
@@ -173,14 +158,72 @@
     <t>The lower share of presentees leads to fewer waves of illness (from 4 to 3 if the share of presentees is under 30%).  Productivity losses are greater with lower shares of presentees.</t>
   </si>
   <si>
-    <t xml:space="preserve">At 0 days, all types act the same and have the same productivity. As sick days increase, the two types are distinguishable in more and more waves, with absentees having a lower average productivity during these waves. </t>
+    <t xml:space="preserve">More teams in a population ceteris paribus, delays the spread of the illness. This means that with more teams, each illness wave occurs at a later tick than when there are less teams (each employee experiences less illness on average). These waves are also longer (over a greater period of ticks) and do not drop to as low of an average productive at their peak.  </t>
+  </si>
+  <si>
+    <t>Lower severity levels increase the average productivity of presentees and of the average worker during illness spikes. For severity above 0.7, makes absentees on average more productive than presentees during an illness. Therefore this shows that for severe illness, it is better for the company for employees to go home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 0 days, all types act the same and have the same productivity. As sick days increase, the two types become more distinguishable, the number of waves increase, and absentees have a lower average productivity during these waves. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only this range is tested because  colds tend not last longer than 2 weeks. A longer recovery period gives longer illness waves which translate in more severe productivity loss. This is logical as the worse the illness, the more the office productivity is affected. Longer  recovery periods also bounds the number of waves that occur. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>This value shifts the amount of time between infections, and determines the number of waves. Therefore this model is very sensitive to this result. At 5 days of immunity, the average number of infections is higher for absentees than presentees since absentees stay sick for longer. The average number of infections increases linearly over number of steps with employss having 17 infections on average by the end of the year. Productivity oscillates, converging to around 75% on average. A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>t immunity for the rest of the year,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> there is only one wave. Therefore at 65 days, there are 3-4 waves depending on the other parameters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>As the number of workers increases, the mean productivity of turtles decreases during a wave of the common cold. The higher the employee count, the more infections employees have each year. Average office productivity is very sensitive to the number of employees.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The illness spikes also occur over a more narrow rane of ticks with higher numbers of employees.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +238,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -217,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -235,6 +288,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,15 +300,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -289,9 +345,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F04881F-5331-42A9-A198-A79F4211A247}" name="Table1" displayName="Table1" ref="A2:E13" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:E13" xr:uid="{2F04881F-5331-42A9-A198-A79F4211A247}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9FDDC5DC-8734-4CDB-BDDB-634C3D60F10A}" name="Parameter" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{9FDDC5DC-8734-4CDB-BDDB-634C3D60F10A}" name="Parameter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{DD9882BB-9876-4806-ABC0-DF8F01CEB405}" name="Range Tested" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{8154918C-8F03-429E-BD30-67E4984D08AC}" name="Default Value" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8154918C-8F03-429E-BD30-67E4984D08AC}" name="Default Value" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{3BCE618C-415D-42C9-AC81-FD98E96427D2}" name="Description"/>
     <tableColumn id="5" xr3:uid="{1C68C6EE-4364-41A0-BADA-25B0F49AB31F}" name="Other Notes" dataDxfId="0"/>
   </tableColumns>
@@ -300,9 +356,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,7 +396,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -446,7 +502,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,20 +654,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178CC9CF-F858-41CF-9A69-28FCE742C1A7}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="137" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="39.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,10 +681,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -639,13 +695,13 @@
         <v>200</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -656,13 +712,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -673,13 +729,13 @@
         <v>0.3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -690,13 +746,13 @@
         <v>0.51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -707,13 +763,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -724,13 +780,13 @@
         <v>0.09</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -741,13 +797,13 @@
         <v>0.3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -758,13 +814,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -775,13 +831,13 @@
         <v>0.67</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="208" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -791,14 +847,14 @@
       <c r="C12" s="2">
         <v>65</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -809,11 +865,11 @@
         <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
     </row>
   </sheetData>
